--- a/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_transition_perfect/agents.xlsx
+++ b/02_config/scenario_pv_60_hp_60_ev_60_consumer_10_transition_perfect/agents.xlsx
@@ -29,12 +29,12 @@
     <t>general/bus</t>
   </si>
   <si>
+    <t>general/aggregated_by</t>
+  </si>
+  <si>
     <t>general/parameters/occupants</t>
   </si>
   <si>
-    <t>general/aggregated_by</t>
-  </si>
-  <si>
     <t>general/parameters/area</t>
   </si>
   <si>
@@ -1016,7 +1016,7 @@
     <t>sfh_38</t>
   </si>
   <si>
-    <t>lZXBY9BJWBq0Ncx</t>
+    <t>LZK48ep41h6qHmB</t>
   </si>
   <si>
     <t>000018335.csv</t>
@@ -1571,7 +1571,7 @@
     <t>clustering_represented_group/share</t>
   </si>
   <si>
-    <t>['sfh_29', 'sfh_36', 'sfh_12', 'sfh_17', 'sfh_3', 'sfh_8', 'sfh_35', 'sfh_14', 'sfh_25', 'sfh_33']</t>
+    <t>['sfh_15', 'sfh_14', 'sfh_12', 'sfh_3', 'sfh_10', 'sfh_33', 'sfh_34', 'sfh_36', 'sfh_30', 'sfh_29']</t>
   </si>
   <si>
     <t>[1]</t>
@@ -2841,7 +2841,7 @@
       <c r="E2">
         <v>21274</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
@@ -3013,7 +3013,7 @@
         <v>60</v>
       </c>
       <c r="DE2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF2" t="s">
         <v>373</v>
@@ -3295,7 +3295,7 @@
         <v>487</v>
       </c>
       <c r="IN2">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO2">
         <v>1</v>
@@ -3346,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="JG2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ2">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="JL2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO2">
         <v>0</v>
@@ -3364,7 +3364,7 @@
         <v>0</v>
       </c>
       <c r="JQ2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:295">
@@ -3377,7 +3377,7 @@
       <c r="E3">
         <v>21249</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4</v>
       </c>
       <c r="H3">
@@ -3549,7 +3549,7 @@
         <v>50</v>
       </c>
       <c r="DE3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF3" t="s">
         <v>373</v>
@@ -3804,7 +3804,7 @@
         <v>487</v>
       </c>
       <c r="IN3">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO3">
         <v>1</v>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
       <c r="JG3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ3">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="JL3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO3">
         <v>0</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="JQ3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:295">
@@ -3886,11 +3886,11 @@
       <c r="E4">
         <v>21166</v>
       </c>
-      <c r="F4">
-        <v>4</v>
+      <c r="G4">
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -3899,7 +3899,7 @@
         <v>2.6</v>
       </c>
       <c r="K4">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L4">
         <v>1</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="DE4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="s">
         <v>373</v>
@@ -4286,7 +4286,7 @@
         <v>0</v>
       </c>
       <c r="JG4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ4">
         <v>0</v>
@@ -4295,7 +4295,7 @@
         <v>0</v>
       </c>
       <c r="JL4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO4">
         <v>0</v>
@@ -4304,7 +4304,7 @@
         <v>0</v>
       </c>
       <c r="JQ4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:295">
@@ -4317,11 +4317,11 @@
       <c r="E5">
         <v>20723</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="s">
+        <v>333</v>
+      </c>
+      <c r="G5">
         <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>333</v>
       </c>
       <c r="H5">
         <v>130</v>
@@ -4477,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="DE5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="s">
         <v>373</v>
@@ -4720,7 +4720,7 @@
         <v>0</v>
       </c>
       <c r="JG5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ5">
         <v>0</v>
@@ -4729,7 +4729,7 @@
         <v>0</v>
       </c>
       <c r="JL5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO5">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>0</v>
       </c>
       <c r="JQ5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:295">
@@ -4751,11 +4751,11 @@
       <c r="E6">
         <v>20561</v>
       </c>
-      <c r="F6">
-        <v>4</v>
+      <c r="G6">
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I6">
         <v>2</v>
@@ -4764,7 +4764,7 @@
         <v>2.6</v>
       </c>
       <c r="K6">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L6">
         <v>1</v>
@@ -4923,7 +4923,7 @@
         <v>42</v>
       </c>
       <c r="DE6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF6" t="s">
         <v>373</v>
@@ -5151,7 +5151,7 @@
         <v>487</v>
       </c>
       <c r="IN6">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO6">
         <v>1</v>
@@ -5202,7 +5202,7 @@
         <v>0</v>
       </c>
       <c r="JG6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ6">
         <v>0</v>
@@ -5211,7 +5211,7 @@
         <v>0</v>
       </c>
       <c r="JL6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO6">
         <v>0</v>
@@ -5220,7 +5220,7 @@
         <v>0</v>
       </c>
       <c r="JQ6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:295">
@@ -5233,11 +5233,11 @@
       <c r="E7">
         <v>20289</v>
       </c>
-      <c r="F7">
-        <v>3</v>
+      <c r="G7">
+        <v>4</v>
       </c>
       <c r="H7">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -5246,7 +5246,7 @@
         <v>2.6</v>
       </c>
       <c r="K7">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L7">
         <v>1</v>
@@ -5405,7 +5405,7 @@
         <v>50</v>
       </c>
       <c r="DE7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF7" t="s">
         <v>373</v>
@@ -5687,7 +5687,7 @@
         <v>487</v>
       </c>
       <c r="IN7">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO7">
         <v>1</v>
@@ -5738,7 +5738,7 @@
         <v>0</v>
       </c>
       <c r="JG7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ7">
         <v>0</v>
@@ -5747,7 +5747,7 @@
         <v>0</v>
       </c>
       <c r="JL7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO7">
         <v>0</v>
@@ -5756,7 +5756,7 @@
         <v>0</v>
       </c>
       <c r="JQ7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:295">
@@ -5769,7 +5769,7 @@
       <c r="E8">
         <v>20136</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3</v>
       </c>
       <c r="H8">
@@ -5941,7 +5941,7 @@
         <v>90</v>
       </c>
       <c r="DE8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF8" t="s">
         <v>373</v>
@@ -6280,7 +6280,7 @@
         <v>51</v>
       </c>
       <c r="JG8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH8">
         <v>9300</v>
@@ -6295,7 +6295,7 @@
         <v>51</v>
       </c>
       <c r="JL8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO8">
         <v>0</v>
@@ -6304,7 +6304,7 @@
         <v>0</v>
       </c>
       <c r="JQ8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR8" t="s">
         <v>501</v>
@@ -6344,11 +6344,11 @@
       <c r="E9">
         <v>19994</v>
       </c>
-      <c r="F9">
-        <v>4</v>
+      <c r="G9">
+        <v>3</v>
       </c>
       <c r="H9">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I9">
         <v>2</v>
@@ -6357,7 +6357,7 @@
         <v>2.6</v>
       </c>
       <c r="K9">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L9">
         <v>1</v>
@@ -6516,7 +6516,7 @@
         <v>46</v>
       </c>
       <c r="DE9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF9" t="s">
         <v>373</v>
@@ -6849,7 +6849,7 @@
         <v>0</v>
       </c>
       <c r="JG9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ9">
         <v>0</v>
@@ -6858,7 +6858,7 @@
         <v>0</v>
       </c>
       <c r="JL9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO9">
         <v>0</v>
@@ -6867,7 +6867,7 @@
         <v>0</v>
       </c>
       <c r="JQ9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR9" t="s">
         <v>502</v>
@@ -6907,11 +6907,8 @@
       <c r="E10">
         <v>19849</v>
       </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>333</v>
+      <c r="G10">
+        <v>3</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -7067,7 +7064,7 @@
         <v>0</v>
       </c>
       <c r="DE10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF10" t="s">
         <v>373</v>
@@ -7259,7 +7256,7 @@
         <v>487</v>
       </c>
       <c r="IN10">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO10">
         <v>1</v>
@@ -7310,7 +7307,7 @@
         <v>0</v>
       </c>
       <c r="JG10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ10">
         <v>0</v>
@@ -7319,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="JL10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO10">
         <v>0</v>
@@ -7328,7 +7325,7 @@
         <v>0</v>
       </c>
       <c r="JQ10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:295">
@@ -7341,7 +7338,7 @@
       <c r="E11">
         <v>19767</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3</v>
       </c>
       <c r="H11">
@@ -7513,7 +7510,7 @@
         <v>60</v>
       </c>
       <c r="DE11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF11" t="s">
         <v>373</v>
@@ -7768,7 +7765,7 @@
         <v>487</v>
       </c>
       <c r="IN11">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO11">
         <v>1</v>
@@ -7825,7 +7822,7 @@
         <v>59</v>
       </c>
       <c r="JG11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH11">
         <v>8300</v>
@@ -7840,7 +7837,7 @@
         <v>60</v>
       </c>
       <c r="JL11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JM11">
         <v>6800</v>
@@ -7855,7 +7852,7 @@
         <v>57</v>
       </c>
       <c r="JQ11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:295">
@@ -7868,7 +7865,10 @@
       <c r="E12">
         <v>19761</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="s">
+        <v>333</v>
+      </c>
+      <c r="G12">
         <v>4</v>
       </c>
       <c r="H12">
@@ -8025,7 +8025,7 @@
         <v>0</v>
       </c>
       <c r="DE12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF12" t="s">
         <v>373</v>
@@ -8268,7 +8268,7 @@
         <v>0</v>
       </c>
       <c r="JG12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ12">
         <v>0</v>
@@ -8277,7 +8277,7 @@
         <v>0</v>
       </c>
       <c r="JL12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO12">
         <v>0</v>
@@ -8286,7 +8286,7 @@
         <v>0</v>
       </c>
       <c r="JQ12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:295">
@@ -8299,11 +8299,11 @@
       <c r="E13">
         <v>19686</v>
       </c>
-      <c r="F13">
-        <v>4</v>
+      <c r="G13">
+        <v>3</v>
       </c>
       <c r="H13">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -8312,7 +8312,7 @@
         <v>2.6</v>
       </c>
       <c r="K13">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L13">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>56</v>
       </c>
       <c r="DE13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF13" t="s">
         <v>373</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="JG13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ13">
         <v>0</v>
@@ -8813,7 +8813,7 @@
         <v>0</v>
       </c>
       <c r="JL13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO13">
         <v>0</v>
@@ -8822,7 +8822,7 @@
         <v>0</v>
       </c>
       <c r="JQ13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:295">
@@ -8835,14 +8835,14 @@
       <c r="E14">
         <v>19522</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" t="s">
         <v>333</v>
       </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
       <c r="H14">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I14">
         <v>2</v>
@@ -8851,7 +8851,7 @@
         <v>2.6</v>
       </c>
       <c r="K14">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L14">
         <v>1</v>
@@ -8995,7 +8995,7 @@
         <v>0</v>
       </c>
       <c r="DE14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF14" t="s">
         <v>373</v>
@@ -9187,7 +9187,7 @@
         <v>487</v>
       </c>
       <c r="IN14">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO14">
         <v>1</v>
@@ -9238,7 +9238,7 @@
         <v>0</v>
       </c>
       <c r="JG14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ14">
         <v>0</v>
@@ -9247,7 +9247,7 @@
         <v>0</v>
       </c>
       <c r="JL14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO14">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="JQ14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:295">
@@ -9269,11 +9269,11 @@
       <c r="E15">
         <v>19414</v>
       </c>
-      <c r="F15">
-        <v>3</v>
+      <c r="G15">
+        <v>4</v>
       </c>
       <c r="H15">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -9282,7 +9282,7 @@
         <v>2.6</v>
       </c>
       <c r="K15">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L15">
         <v>1</v>
@@ -9441,7 +9441,7 @@
         <v>49</v>
       </c>
       <c r="DE15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF15" t="s">
         <v>373</v>
@@ -9696,7 +9696,7 @@
         <v>487</v>
       </c>
       <c r="IN15">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO15">
         <v>1</v>
@@ -9747,7 +9747,7 @@
         <v>0</v>
       </c>
       <c r="JG15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ15">
         <v>0</v>
@@ -9756,7 +9756,7 @@
         <v>0</v>
       </c>
       <c r="JL15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO15">
         <v>0</v>
@@ -9765,7 +9765,7 @@
         <v>0</v>
       </c>
       <c r="JQ15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:295">
@@ -9778,11 +9778,11 @@
       <c r="E16">
         <v>19288</v>
       </c>
-      <c r="F16">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
+      <c r="F16" t="s">
         <v>333</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
       </c>
       <c r="H16">
         <v>100</v>
@@ -9938,7 +9938,7 @@
         <v>0</v>
       </c>
       <c r="DE16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF16" t="s">
         <v>373</v>
@@ -10130,7 +10130,7 @@
         <v>487</v>
       </c>
       <c r="IN16">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO16">
         <v>1</v>
@@ -10181,7 +10181,7 @@
         <v>0</v>
       </c>
       <c r="JG16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ16">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>0</v>
       </c>
       <c r="JL16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO16">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="JQ16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:295">
@@ -10212,7 +10212,10 @@
       <c r="E17">
         <v>19210</v>
       </c>
-      <c r="F17">
+      <c r="F17" t="s">
+        <v>333</v>
+      </c>
+      <c r="G17">
         <v>4</v>
       </c>
       <c r="H17">
@@ -10369,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="DE17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF17" t="s">
         <v>373</v>
@@ -10561,7 +10564,7 @@
         <v>487</v>
       </c>
       <c r="IN17">
-        <v>43200</v>
+        <v>72000</v>
       </c>
       <c r="IO17">
         <v>1</v>
@@ -10612,7 +10615,7 @@
         <v>0</v>
       </c>
       <c r="JG17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ17">
         <v>0</v>
@@ -10621,7 +10624,7 @@
         <v>0</v>
       </c>
       <c r="JL17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO17">
         <v>0</v>
@@ -10630,7 +10633,7 @@
         <v>0</v>
       </c>
       <c r="JQ17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:295">
@@ -10643,7 +10646,7 @@
       <c r="E18">
         <v>19147</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>3</v>
       </c>
       <c r="H18">
@@ -10815,7 +10818,7 @@
         <v>50</v>
       </c>
       <c r="DE18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF18" t="s">
         <v>373</v>
@@ -11148,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="JG18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ18">
         <v>0</v>
@@ -11157,7 +11160,7 @@
         <v>0</v>
       </c>
       <c r="JL18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO18">
         <v>0</v>
@@ -11166,7 +11169,7 @@
         <v>0</v>
       </c>
       <c r="JQ18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:295">
@@ -11179,11 +11182,8 @@
       <c r="E19">
         <v>19040</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>4</v>
-      </c>
-      <c r="G19" t="s">
-        <v>333</v>
       </c>
       <c r="H19">
         <v>130</v>
@@ -11339,7 +11339,7 @@
         <v>0</v>
       </c>
       <c r="DE19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF19" t="s">
         <v>373</v>
@@ -11582,7 +11582,7 @@
         <v>0</v>
       </c>
       <c r="JG19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ19">
         <v>0</v>
@@ -11591,7 +11591,7 @@
         <v>0</v>
       </c>
       <c r="JL19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO19">
         <v>0</v>
@@ -11600,7 +11600,7 @@
         <v>0</v>
       </c>
       <c r="JQ19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:295">
@@ -11613,7 +11613,7 @@
       <c r="E20">
         <v>18552</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>3</v>
       </c>
       <c r="H20">
@@ -11785,7 +11785,7 @@
         <v>47</v>
       </c>
       <c r="DE20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF20" t="s">
         <v>373</v>
@@ -12091,7 +12091,7 @@
         <v>0</v>
       </c>
       <c r="JG20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ20">
         <v>0</v>
@@ -12100,7 +12100,7 @@
         <v>0</v>
       </c>
       <c r="JL20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO20">
         <v>0</v>
@@ -12109,7 +12109,7 @@
         <v>0</v>
       </c>
       <c r="JQ20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:295">
@@ -12122,11 +12122,11 @@
       <c r="E21">
         <v>18493</v>
       </c>
-      <c r="F21">
-        <v>4</v>
+      <c r="G21">
+        <v>3</v>
       </c>
       <c r="H21">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -12135,7 +12135,7 @@
         <v>2.6</v>
       </c>
       <c r="K21">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L21">
         <v>1</v>
@@ -12294,7 +12294,7 @@
         <v>45</v>
       </c>
       <c r="DE21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF21" t="s">
         <v>373</v>
@@ -12600,7 +12600,7 @@
         <v>0</v>
       </c>
       <c r="JG21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ21">
         <v>0</v>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="JL21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO21">
         <v>0</v>
@@ -12618,7 +12618,7 @@
         <v>0</v>
       </c>
       <c r="JQ21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:295">
@@ -12631,11 +12631,11 @@
       <c r="E22">
         <v>18160</v>
       </c>
-      <c r="F22">
-        <v>3</v>
+      <c r="G22">
+        <v>4</v>
       </c>
       <c r="H22">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I22">
         <v>2</v>
@@ -12644,7 +12644,7 @@
         <v>2.6</v>
       </c>
       <c r="K22">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L22">
         <v>1</v>
@@ -12803,7 +12803,7 @@
         <v>90</v>
       </c>
       <c r="DE22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF22" t="s">
         <v>373</v>
@@ -13058,7 +13058,7 @@
         <v>487</v>
       </c>
       <c r="IN22">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO22">
         <v>1</v>
@@ -13115,7 +13115,7 @@
         <v>48</v>
       </c>
       <c r="JG22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ22">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="JL22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO22">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>0</v>
       </c>
       <c r="JQ22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:295">
@@ -13146,11 +13146,11 @@
       <c r="E23">
         <v>17736</v>
       </c>
-      <c r="F23">
-        <v>3</v>
+      <c r="G23">
+        <v>4</v>
       </c>
       <c r="H23">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -13159,7 +13159,7 @@
         <v>2.6</v>
       </c>
       <c r="K23">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L23">
         <v>1</v>
@@ -13318,7 +13318,7 @@
         <v>90</v>
       </c>
       <c r="DE23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF23" t="s">
         <v>373</v>
@@ -13600,7 +13600,7 @@
         <v>487</v>
       </c>
       <c r="IN23">
-        <v>72000</v>
+        <v>86400</v>
       </c>
       <c r="IO23">
         <v>1</v>
@@ -13657,7 +13657,7 @@
         <v>43</v>
       </c>
       <c r="JG23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JH23">
         <v>2800</v>
@@ -13672,7 +13672,7 @@
         <v>43</v>
       </c>
       <c r="JL23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO23">
         <v>0</v>
@@ -13681,7 +13681,7 @@
         <v>0</v>
       </c>
       <c r="JQ23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR23" t="s">
         <v>503</v>
@@ -13721,7 +13721,7 @@
       <c r="E24">
         <v>17231</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>3</v>
       </c>
       <c r="H24">
@@ -13893,7 +13893,7 @@
         <v>41</v>
       </c>
       <c r="DE24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF24" t="s">
         <v>373</v>
@@ -14148,7 +14148,7 @@
         <v>487</v>
       </c>
       <c r="IN24">
-        <v>43200</v>
+        <v>86400</v>
       </c>
       <c r="IO24">
         <v>1</v>
@@ -14199,7 +14199,7 @@
         <v>0</v>
       </c>
       <c r="JG24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ24">
         <v>0</v>
@@ -14208,7 +14208,7 @@
         <v>0</v>
       </c>
       <c r="JL24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO24">
         <v>0</v>
@@ -14217,7 +14217,7 @@
         <v>0</v>
       </c>
       <c r="JQ24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:295">
@@ -14230,7 +14230,7 @@
       <c r="E25">
         <v>17130</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3</v>
       </c>
       <c r="H25">
@@ -14402,7 +14402,7 @@
         <v>71</v>
       </c>
       <c r="DE25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF25" t="s">
         <v>373</v>
@@ -14657,7 +14657,7 @@
         <v>487</v>
       </c>
       <c r="IN25">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO25">
         <v>1</v>
@@ -14708,7 +14708,7 @@
         <v>0</v>
       </c>
       <c r="JG25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ25">
         <v>0</v>
@@ -14717,7 +14717,7 @@
         <v>0</v>
       </c>
       <c r="JL25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO25">
         <v>0</v>
@@ -14726,7 +14726,7 @@
         <v>0</v>
       </c>
       <c r="JQ25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:295">
@@ -14739,7 +14739,7 @@
       <c r="E26">
         <v>17042</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>4</v>
       </c>
       <c r="H26">
@@ -14911,7 +14911,7 @@
         <v>52</v>
       </c>
       <c r="DE26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF26" t="s">
         <v>373</v>
@@ -15193,7 +15193,7 @@
         <v>487</v>
       </c>
       <c r="IN26">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO26">
         <v>1</v>
@@ -15250,7 +15250,7 @@
         <v>52</v>
       </c>
       <c r="JG26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ26">
         <v>0</v>
@@ -15259,7 +15259,7 @@
         <v>0</v>
       </c>
       <c r="JL26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO26">
         <v>0</v>
@@ -15268,7 +15268,7 @@
         <v>0</v>
       </c>
       <c r="JQ26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:295">
@@ -15281,14 +15281,11 @@
       <c r="E27">
         <v>16829</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>333</v>
+      <c r="G27">
+        <v>3</v>
       </c>
       <c r="H27">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I27">
         <v>2</v>
@@ -15297,7 +15294,7 @@
         <v>2.6</v>
       </c>
       <c r="K27">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L27">
         <v>1</v>
@@ -15441,7 +15438,7 @@
         <v>0</v>
       </c>
       <c r="DE27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF27" t="s">
         <v>373</v>
@@ -15633,7 +15630,7 @@
         <v>487</v>
       </c>
       <c r="IN27">
-        <v>43200</v>
+        <v>57600</v>
       </c>
       <c r="IO27">
         <v>1</v>
@@ -15684,7 +15681,7 @@
         <v>0</v>
       </c>
       <c r="JG27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ27">
         <v>0</v>
@@ -15693,7 +15690,7 @@
         <v>0</v>
       </c>
       <c r="JL27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO27">
         <v>0</v>
@@ -15702,7 +15699,7 @@
         <v>0</v>
       </c>
       <c r="JQ27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:295">
@@ -15715,7 +15712,7 @@
       <c r="E28">
         <v>15953</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>4</v>
       </c>
       <c r="H28">
@@ -15887,7 +15884,7 @@
         <v>55</v>
       </c>
       <c r="DE28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF28" t="s">
         <v>373</v>
@@ -16169,7 +16166,7 @@
         <v>487</v>
       </c>
       <c r="IN28">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO28">
         <v>1</v>
@@ -16226,7 +16223,7 @@
         <v>55</v>
       </c>
       <c r="JG28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ28">
         <v>0</v>
@@ -16235,7 +16232,7 @@
         <v>0</v>
       </c>
       <c r="JL28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO28">
         <v>0</v>
@@ -16244,7 +16241,7 @@
         <v>0</v>
       </c>
       <c r="JQ28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:295">
@@ -16257,11 +16254,11 @@
       <c r="E29">
         <v>15873</v>
       </c>
-      <c r="F29">
-        <v>3</v>
+      <c r="G29">
+        <v>4</v>
       </c>
       <c r="H29">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I29">
         <v>2</v>
@@ -16270,7 +16267,7 @@
         <v>2.6</v>
       </c>
       <c r="K29">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L29">
         <v>1</v>
@@ -16429,7 +16426,7 @@
         <v>90</v>
       </c>
       <c r="DE29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF29" t="s">
         <v>373</v>
@@ -16657,7 +16654,7 @@
         <v>487</v>
       </c>
       <c r="IN29">
-        <v>86400</v>
+        <v>43200</v>
       </c>
       <c r="IO29">
         <v>1</v>
@@ -16714,7 +16711,7 @@
         <v>57</v>
       </c>
       <c r="JG29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ29">
         <v>0</v>
@@ -16723,7 +16720,7 @@
         <v>0</v>
       </c>
       <c r="JL29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO29">
         <v>0</v>
@@ -16732,7 +16729,7 @@
         <v>0</v>
       </c>
       <c r="JQ29" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:295">
@@ -16745,11 +16742,11 @@
       <c r="E30">
         <v>15855</v>
       </c>
-      <c r="F30">
-        <v>4</v>
+      <c r="G30">
+        <v>3</v>
       </c>
       <c r="H30">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I30">
         <v>2</v>
@@ -16758,7 +16755,7 @@
         <v>2.6</v>
       </c>
       <c r="K30">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L30">
         <v>1</v>
@@ -16917,7 +16914,7 @@
         <v>41</v>
       </c>
       <c r="DE30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF30" t="s">
         <v>373</v>
@@ -17250,7 +17247,7 @@
         <v>0</v>
       </c>
       <c r="JG30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ30">
         <v>0</v>
@@ -17259,7 +17256,7 @@
         <v>0</v>
       </c>
       <c r="JL30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO30">
         <v>0</v>
@@ -17268,7 +17265,7 @@
         <v>0</v>
       </c>
       <c r="JQ30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR30" t="s">
         <v>504</v>
@@ -17335,11 +17332,11 @@
       <c r="E31">
         <v>15737</v>
       </c>
-      <c r="F31">
+      <c r="F31" t="s">
+        <v>333</v>
+      </c>
+      <c r="G31">
         <v>4</v>
-      </c>
-      <c r="G31" t="s">
-        <v>333</v>
       </c>
       <c r="H31">
         <v>130</v>
@@ -17495,7 +17492,7 @@
         <v>0</v>
       </c>
       <c r="DE31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF31" t="s">
         <v>373</v>
@@ -17687,7 +17684,7 @@
         <v>487</v>
       </c>
       <c r="IN31">
-        <v>57600</v>
+        <v>86400</v>
       </c>
       <c r="IO31">
         <v>1</v>
@@ -17738,7 +17735,7 @@
         <v>0</v>
       </c>
       <c r="JG31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ31">
         <v>0</v>
@@ -17747,7 +17744,7 @@
         <v>0</v>
       </c>
       <c r="JL31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO31">
         <v>0</v>
@@ -17756,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="JQ31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:295">
@@ -17769,11 +17766,14 @@
       <c r="E32">
         <v>15583</v>
       </c>
-      <c r="F32">
-        <v>3</v>
+      <c r="F32" t="s">
+        <v>333</v>
+      </c>
+      <c r="G32">
+        <v>4</v>
       </c>
       <c r="H32">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I32">
         <v>2</v>
@@ -17782,7 +17782,7 @@
         <v>2.6</v>
       </c>
       <c r="K32">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L32">
         <v>1</v>
@@ -17926,7 +17926,7 @@
         <v>0</v>
       </c>
       <c r="DE32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF32" t="s">
         <v>373</v>
@@ -18169,7 +18169,7 @@
         <v>0</v>
       </c>
       <c r="JG32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ32">
         <v>0</v>
@@ -18178,7 +18178,7 @@
         <v>0</v>
       </c>
       <c r="JL32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO32">
         <v>0</v>
@@ -18187,7 +18187,7 @@
         <v>0</v>
       </c>
       <c r="JQ32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:295">
@@ -18200,7 +18200,7 @@
       <c r="E33">
         <v>14594</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>3</v>
       </c>
       <c r="H33">
@@ -18372,7 +18372,7 @@
         <v>39</v>
       </c>
       <c r="DE33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF33" t="s">
         <v>373</v>
@@ -18654,7 +18654,7 @@
         <v>487</v>
       </c>
       <c r="IN33">
-        <v>57600</v>
+        <v>72000</v>
       </c>
       <c r="IO33">
         <v>1</v>
@@ -18705,7 +18705,7 @@
         <v>0</v>
       </c>
       <c r="JG33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ33">
         <v>0</v>
@@ -18714,7 +18714,7 @@
         <v>0</v>
       </c>
       <c r="JL33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO33">
         <v>0</v>
@@ -18723,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="JQ33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:295">
@@ -18736,11 +18736,11 @@
       <c r="E34">
         <v>14561</v>
       </c>
-      <c r="F34">
-        <v>4</v>
+      <c r="G34">
+        <v>3</v>
       </c>
       <c r="H34">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -18749,7 +18749,7 @@
         <v>2.6</v>
       </c>
       <c r="K34">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L34">
         <v>1</v>
@@ -18908,7 +18908,7 @@
         <v>52</v>
       </c>
       <c r="DE34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF34" t="s">
         <v>373</v>
@@ -19190,7 +19190,7 @@
         <v>487</v>
       </c>
       <c r="IN34">
-        <v>86400</v>
+        <v>57600</v>
       </c>
       <c r="IO34">
         <v>1</v>
@@ -19241,7 +19241,7 @@
         <v>0</v>
       </c>
       <c r="JG34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ34">
         <v>0</v>
@@ -19250,7 +19250,7 @@
         <v>0</v>
       </c>
       <c r="JL34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO34">
         <v>0</v>
@@ -19259,7 +19259,7 @@
         <v>0</v>
       </c>
       <c r="JQ34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JR34" t="s">
         <v>505</v>
@@ -19326,14 +19326,14 @@
       <c r="E35">
         <v>14145</v>
       </c>
-      <c r="F35">
-        <v>3</v>
-      </c>
-      <c r="G35" t="s">
+      <c r="F35" t="s">
         <v>333</v>
       </c>
+      <c r="G35">
+        <v>4</v>
+      </c>
       <c r="H35">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I35">
         <v>2</v>
@@ -19342,7 +19342,7 @@
         <v>2.6</v>
       </c>
       <c r="K35">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L35">
         <v>1</v>
@@ -19486,7 +19486,7 @@
         <v>0</v>
       </c>
       <c r="DE35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF35" t="s">
         <v>373</v>
@@ -19678,7 +19678,7 @@
         <v>487</v>
       </c>
       <c r="IN35">
-        <v>72000</v>
+        <v>57600</v>
       </c>
       <c r="IO35">
         <v>1</v>
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="JG35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ35">
         <v>0</v>
@@ -19738,7 +19738,7 @@
         <v>0</v>
       </c>
       <c r="JL35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO35">
         <v>0</v>
@@ -19747,7 +19747,7 @@
         <v>0</v>
       </c>
       <c r="JQ35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:295">
@@ -19760,11 +19760,14 @@
       <c r="E36">
         <v>14125</v>
       </c>
-      <c r="F36">
-        <v>4</v>
+      <c r="F36" t="s">
+        <v>333</v>
+      </c>
+      <c r="G36">
+        <v>3</v>
       </c>
       <c r="H36">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I36">
         <v>2</v>
@@ -19773,7 +19776,7 @@
         <v>2.6</v>
       </c>
       <c r="K36">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L36">
         <v>1</v>
@@ -19917,7 +19920,7 @@
         <v>0</v>
       </c>
       <c r="DE36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF36" t="s">
         <v>373</v>
@@ -20109,7 +20112,7 @@
         <v>487</v>
       </c>
       <c r="IN36">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO36">
         <v>1</v>
@@ -20160,7 +20163,7 @@
         <v>0</v>
       </c>
       <c r="JG36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ36">
         <v>0</v>
@@ -20169,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="JL36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO36">
         <v>0</v>
@@ -20178,7 +20181,7 @@
         <v>0</v>
       </c>
       <c r="JQ36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:295">
@@ -20191,11 +20194,8 @@
       <c r="E37">
         <v>14119</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>4</v>
-      </c>
-      <c r="G37" t="s">
-        <v>333</v>
       </c>
       <c r="H37">
         <v>130</v>
@@ -20351,7 +20351,7 @@
         <v>0</v>
       </c>
       <c r="DE37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF37" t="s">
         <v>373</v>
@@ -20543,7 +20543,7 @@
         <v>487</v>
       </c>
       <c r="IN37">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="IO37">
         <v>1</v>
@@ -20594,7 +20594,7 @@
         <v>0</v>
       </c>
       <c r="JG37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ37">
         <v>0</v>
@@ -20603,7 +20603,7 @@
         <v>0</v>
       </c>
       <c r="JL37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO37">
         <v>0</v>
@@ -20612,7 +20612,7 @@
         <v>0</v>
       </c>
       <c r="JQ37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:295">
@@ -20625,14 +20625,14 @@
       <c r="E38">
         <v>13668</v>
       </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38" t="s">
+      <c r="F38" t="s">
         <v>333</v>
       </c>
+      <c r="G38">
+        <v>3</v>
+      </c>
       <c r="H38">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -20641,7 +20641,7 @@
         <v>2.6</v>
       </c>
       <c r="K38">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="L38">
         <v>1</v>
@@ -20785,7 +20785,7 @@
         <v>0</v>
       </c>
       <c r="DE38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF38" t="s">
         <v>373</v>
@@ -21028,7 +21028,7 @@
         <v>0</v>
       </c>
       <c r="JG38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ38">
         <v>0</v>
@@ -21037,7 +21037,7 @@
         <v>0</v>
       </c>
       <c r="JL38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO38">
         <v>0</v>
@@ -21046,7 +21046,7 @@
         <v>0</v>
       </c>
       <c r="JQ38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:295">
@@ -21059,11 +21059,11 @@
       <c r="E39">
         <v>13273</v>
       </c>
-      <c r="F39">
-        <v>3</v>
+      <c r="G39">
+        <v>4</v>
       </c>
       <c r="H39">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I39">
         <v>2</v>
@@ -21072,7 +21072,7 @@
         <v>2.6</v>
       </c>
       <c r="K39">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L39">
         <v>1</v>
@@ -21216,7 +21216,7 @@
         <v>0</v>
       </c>
       <c r="DE39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF39" t="s">
         <v>373</v>
@@ -21408,7 +21408,7 @@
         <v>487</v>
       </c>
       <c r="IN39">
-        <v>57600</v>
+        <v>43200</v>
       </c>
       <c r="IO39">
         <v>1</v>
@@ -21459,7 +21459,7 @@
         <v>0</v>
       </c>
       <c r="JG39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ39">
         <v>0</v>
@@ -21468,7 +21468,7 @@
         <v>0</v>
       </c>
       <c r="JL39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO39">
         <v>0</v>
@@ -21477,7 +21477,7 @@
         <v>0</v>
       </c>
       <c r="JQ39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:295">
@@ -21490,11 +21490,11 @@
       <c r="E40">
         <v>13127</v>
       </c>
-      <c r="F40">
-        <v>3</v>
+      <c r="G40">
+        <v>4</v>
       </c>
       <c r="H40">
-        <v>100</v>
+        <v>130</v>
       </c>
       <c r="I40">
         <v>2</v>
@@ -21503,7 +21503,7 @@
         <v>2.6</v>
       </c>
       <c r="K40">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="L40">
         <v>1</v>
@@ -21662,7 +21662,7 @@
         <v>52</v>
       </c>
       <c r="DE40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="DF40" t="s">
         <v>373</v>
@@ -21995,7 +21995,7 @@
         <v>0</v>
       </c>
       <c r="JG40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JJ40">
         <v>0</v>
@@ -22004,7 +22004,7 @@
         <v>0</v>
       </c>
       <c r="JL40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="JO40">
         <v>0</v>
@@ -22013,7 +22013,7 @@
         <v>0</v>
       </c>
       <c r="JQ40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -22046,7 +22046,7 @@
         <v>508</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>509</v>
@@ -22174,7 +22174,7 @@
         <v>487</v>
       </c>
       <c r="V2">
-        <v>72000</v>
+        <v>43200</v>
       </c>
       <c r="W2">
         <v>1</v>
